--- a/cascade/cascade_results.xlsx
+++ b/cascade/cascade_results.xlsx
@@ -5,10 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="order6" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="order7" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="order8" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="order9" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="summary" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -19,16 +23,86 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
+  <si>
+    <t xml:space="preserve">Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Mace4 Outputs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time (s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Non-isomorphic models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time w/o invariants (s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time w/ invariants (s), parallel 24 cores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time w/ invariants – single thread (s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time w/ invariants – 24 cores (s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time to remove lower orders (s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time w/ invariants (s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model Filter Time w/o invariants (s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model Filter Time w/ invariants (s), parallel 24 cores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAP Time to filter out lower orders, single thread (s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallel GAP Time to Filter out lower orders – 4 threads(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Time (s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final #models, up to isomorphism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final #models up to iso- and anti-isomorphism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n/a</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="#,##0"/>
   </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -88,9 +162,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -110,14 +196,227 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A4:AMJ21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.54"/>
+  </cols>
+  <sheetData>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AMH5" s="0"/>
+      <c r="AMI5" s="0"/>
+      <c r="AMJ5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <f aca="false">SUM(B6:B19)</f>
+        <v>4</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <f aca="false">MAX(C6:C19)</f>
+        <v>7</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -126,4 +425,1089 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A4:AMJ26"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AMH5" s="0"/>
+      <c r="AMI5" s="0"/>
+      <c r="AMJ5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <f aca="false">SUM(B6:B21)</f>
+        <v>115</v>
+      </c>
+      <c r="C23" s="3" t="n">
+        <f aca="false">MAX(C6:C21)</f>
+        <v>57</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="3" t="n">
+        <v>115</v>
+      </c>
+      <c r="C26" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="AMH26" s="0"/>
+      <c r="AMI26" s="0"/>
+      <c r="AMJ26" s="0"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A4:H27"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.64"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>2929</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <f aca="false">SUM(B6:B23)</f>
+        <v>3041</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <f aca="false">MAX(C6:C23)</f>
+        <v>763</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A4:G27"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.94"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="5" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>127525</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>4259</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>769</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>5773</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>3622</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>3969</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>3498</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>2982</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>5077</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>3764</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>6398</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>4091</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>4164</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>5278</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>5953</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>3403</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>6922</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <f aca="false">SUM(B6:B25)</f>
+        <v>133129</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <f aca="false">MAX(C6:C25)</f>
+        <v>6922</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>7510</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>43136</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A5:AMJ9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="4.3"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.5"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="5" s="2" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AMI5" s="0"/>
+      <c r="AMJ5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <f aca="false">G6+D6</f>
+        <v>7</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>115</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <f aca="false">D7+G7+I7</f>
+        <v>142</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>3041</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>763</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <f aca="false">38*60+45</f>
+        <v>2325</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <f aca="false">D8+G8+I8</f>
+        <v>3104</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>133129</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>6922</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>7510</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <f aca="false">12*3600-64</f>
+        <v>43136</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <f aca="false">7*3600+7*60-7</f>
+        <v>25613</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <f aca="false">D9+H9+J9</f>
+        <v>32548</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/cascade/cascade_results.xlsx
+++ b/cascade/cascade_results.xlsx
@@ -5,14 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="order6" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="order7" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="order8" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="order9" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="summary" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="order10" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="summary" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="23">
   <si>
     <t xml:space="preserve">Order</t>
   </si>
@@ -71,19 +72,25 @@
     <t xml:space="preserve">Model Filter Time w/ invariants (s), parallel 24 cores</t>
   </si>
   <si>
+    <t xml:space="preserve">n from 1 to</t>
+  </si>
+  <si>
     <t xml:space="preserve">GAP Time to filter out lower orders, single thread (s)</t>
   </si>
   <si>
     <t xml:space="preserve">Parallel GAP Time to Filter out lower orders – 4 threads(s)</t>
   </si>
   <si>
+    <t xml:space="preserve">Use IsomorphismAlgebras to filter out lower order models (s)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Total Time (s)</t>
   </si>
   <si>
     <t xml:space="preserve">Final #models, up to isomorphism</t>
   </si>
   <si>
-    <t xml:space="preserve">Final #models up to iso- and anti-isomorphism</t>
+    <t xml:space="preserve">Final #models up to isomorphism and anti-isomorphism</t>
   </si>
   <si>
     <t xml:space="preserve">n/a</t>
@@ -120,12 +127,18 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -162,7 +175,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -177,6 +190,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -202,7 +219,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.67"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.54"/>
@@ -438,7 +455,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.67"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.52"/>
@@ -728,10 +745,12 @@
       <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.64"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.61"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="4" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1008,10 +1027,10 @@
   <dimension ref="A4:G27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.94"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="11.52"/>
@@ -1305,30 +1324,344 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A5:AMJ9"/>
+  <dimension ref="A4:G29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>8603580</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>1481</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <f aca="false">SUM(B6:B27)</f>
+        <v>8603580</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <f aca="false">MAX(C6:C27)</f>
+        <v>1481</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A5:P10"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P6" activeCellId="0" sqref="P6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="4.3"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.5"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="3.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.56"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="3.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="10.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="3.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="10.69"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="5" s="2" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="2" customFormat="true" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>2</v>
@@ -1346,9 +1679,7 @@
       <c r="H5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
         <v>16</v>
       </c>
@@ -1358,11 +1689,16 @@
       <c r="L5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="3"/>
+      <c r="N5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AMI5" s="0"/>
-      <c r="AMJ5" s="0"/>
+      <c r="O5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -1383,17 +1719,17 @@
       <c r="G6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="1" t="n">
+      <c r="J6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="1" t="n">
         <f aca="false">G6+D6</f>
         <v>7</v>
       </c>
-      <c r="L6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="M6" s="0" t="n">
+      <c r="O6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1418,17 +1754,21 @@
         <v>0</v>
       </c>
       <c r="H7" s="3"/>
-      <c r="I7" s="1" t="n">
+      <c r="I7" s="3"/>
+      <c r="J7" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="K7" s="1" t="n">
-        <f aca="false">D7+G7+I7</f>
-        <v>142</v>
-      </c>
-      <c r="L7" s="1" t="n">
+      <c r="L7" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <f aca="false">D7+F7+L7</f>
+        <v>91</v>
+      </c>
+      <c r="O7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="P7" s="0" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1451,18 +1791,21 @@
       <c r="G8" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="I8" s="1" t="n">
+      <c r="J8" s="1" t="n">
         <f aca="false">38*60+45</f>
         <v>2325</v>
       </c>
-      <c r="K8" s="1" t="n">
-        <f aca="false">D8+G8+I8</f>
-        <v>3104</v>
-      </c>
-      <c r="L8" s="1" t="n">
+      <c r="L8" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <f aca="false">D8+G8+L8</f>
+        <v>781</v>
+      </c>
+      <c r="O8" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="P8" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1489,16 +1832,30 @@
       <c r="H9" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="J9" s="1" t="n">
+      <c r="K9" s="1" t="n">
         <f aca="false">7*3600+7*60-7</f>
         <v>25613</v>
       </c>
-      <c r="K9" s="1" t="n">
-        <f aca="false">D9+H9+J9</f>
-        <v>32548</v>
-      </c>
-      <c r="L9" s="1" t="n">
+      <c r="L9" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <f aca="false">D9+H9+L9</f>
+        <v>6960</v>
+      </c>
+      <c r="O9" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/cascade/cascade_results.xlsx
+++ b/cascade/cascade_results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="29">
   <si>
     <t xml:space="preserve">Order</t>
   </si>
@@ -70,6 +70,24 @@
   </si>
   <si>
     <t xml:space="preserve">Model Filter Time w/ invariants (s), parallel 24 cores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filtering </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mace4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Removing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">models with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">containment</t>
   </si>
   <si>
     <t xml:space="preserve">n from 1 to</t>
@@ -127,18 +145,12 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -192,7 +204,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -219,7 +231,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.67"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.54"/>
@@ -455,7 +467,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.67"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.52"/>
@@ -745,7 +757,7 @@
       <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.64"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.52"/>
@@ -1030,7 +1042,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.94"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="11.52"/>
@@ -1330,7 +1342,7 @@
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -1632,23 +1644,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A5:P10"/>
+  <dimension ref="A4:P10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P6" activeCellId="0" sqref="P6"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="3.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="3.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="3.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="10.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="3.05"/>
@@ -1656,12 +1668,32 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="11.52"/>
   </cols>
   <sheetData>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="5" s="2" customFormat="true" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>2</v>
@@ -1681,23 +1713,23 @@
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1720,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N6" s="1" t="n">
         <f aca="false">G6+D6</f>

--- a/cascade/cascade_results.xlsx
+++ b/cascade/cascade_results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="33">
   <si>
     <t xml:space="preserve">Order</t>
   </si>
@@ -70,6 +70,18 @@
   </si>
   <si>
     <t xml:space="preserve">Model Filter Time w/ invariants (s), parallel 24 cores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only added</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a^2*a^2 != a^4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nov 7, 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Filtering </t>
@@ -187,7 +199,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -204,8 +216,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -231,10 +247,10 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.54"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -461,16 +477,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A4:AMJ26"/>
+  <dimension ref="A4:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -709,31 +725,8 @@
         <v>0</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="3" t="n">
-        <v>115</v>
-      </c>
-      <c r="C26" s="3" t="n">
-        <v>57</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3" t="n">
-        <v>32</v>
-      </c>
-      <c r="F26" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="2" t="n">
-        <v>85</v>
-      </c>
-      <c r="AMH26" s="0"/>
-      <c r="AMI26" s="0"/>
-      <c r="AMJ26" s="0"/>
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -751,18 +744,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A4:H27"/>
+  <dimension ref="A4:I27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+      <selection pane="topLeft" activeCell="J27" activeCellId="0" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.64"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.61"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="4" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -796,6 +789,9 @@
       <c r="H5" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -1018,6 +1014,9 @@
       </c>
       <c r="F27" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1036,17 +1035,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A4:G27"/>
+  <dimension ref="A4:I27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="J27" activeCellId="0" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.94"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="5" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1077,6 +1076,9 @@
       <c r="G5" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -1318,6 +1320,9 @@
       </c>
       <c r="G27" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1336,14 +1341,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A4:G29"/>
+  <dimension ref="A2:H29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.78"/>
+  </cols>
   <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>0</v>
@@ -1354,7 +1370,6 @@
       <c r="C4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
@@ -1371,10 +1386,10 @@
         <v>4</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3" t="s">
         <v>14</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1389,228 +1404,285 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>8603580</v>
+        <v>4916789</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>1481</v>
+        <v>707</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="B8" s="1" t="n">
+        <v>67059</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>201</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="1" t="n">
+        <v>67324</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>363</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="1" t="n">
+        <v>62916</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>423</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="B11" s="1" t="n">
+        <v>73154</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>590</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="B12" s="1" t="n">
+        <v>62904</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>448</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="B13" s="1" t="n">
+        <v>67397</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>575</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="B14" s="1" t="n">
+        <v>68448</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>521</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="B15" s="1" t="n">
+        <v>67130</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>604</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="B16" s="1" t="n">
+        <v>62904</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>513</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="B17" s="1" t="n">
+        <v>73433</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>728</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="B18" s="1" t="n">
+        <v>62904</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>544</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="B19" s="1" t="n">
+        <v>67118</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>703</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="B20" s="1" t="n">
+        <v>68460</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>668</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="B21" s="1" t="n">
+        <v>67397</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>789</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="B22" s="1" t="n">
+        <v>62904</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>665</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="B23" s="1" t="n">
+        <v>73154</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>917</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="B24" s="1" t="n">
+        <v>62904</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>728</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="B25" s="1" t="n">
+        <v>67409</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>947</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="B26" s="1" t="n">
+        <v>68448</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>878</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="B27" s="1" t="n">
+        <v>67118</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>1023</v>
+      </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
@@ -1618,15 +1690,23 @@
       </c>
       <c r="B29" s="1" t="n">
         <f aca="false">SUM(B6:B27)</f>
-        <v>8603580</v>
+        <v>6257274</v>
       </c>
       <c r="C29" s="1" t="n">
-        <f aca="false">MAX(C6:C27)</f>
-        <v>1481</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+        <f aca="false">MAX(C6:C27)+22</f>
+        <v>1045</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>147305</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <f aca="false">583+87+23</f>
+        <v>693</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <f aca="false">26*60-4</f>
+        <v>1556</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1644,48 +1724,56 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A4:P10"/>
+  <dimension ref="A2:P21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="3.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="3.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.64"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="10.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="13.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="3.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="10.69"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="11.52"/>
   </cols>
   <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="true" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1693,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>2</v>
@@ -1713,23 +1801,23 @@
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1752,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N6" s="1" t="n">
         <f aca="false">G6+D6</f>
@@ -1790,7 +1878,7 @@
       <c r="J7" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="L7" s="4" t="n">
+      <c r="L7" s="1" t="n">
         <v>2</v>
       </c>
       <c r="N7" s="1" t="n">
@@ -1827,7 +1915,7 @@
         <f aca="false">38*60+45</f>
         <v>2325</v>
       </c>
-      <c r="L8" s="4" t="n">
+      <c r="L8" s="1" t="n">
         <v>2</v>
       </c>
       <c r="N8" s="1" t="n">
@@ -1868,7 +1956,7 @@
         <f aca="false">7*3600+7*60-7</f>
         <v>25613</v>
       </c>
-      <c r="L9" s="4" t="n">
+      <c r="L9" s="1" t="n">
         <v>25</v>
       </c>
       <c r="N9" s="1" t="n">
@@ -1889,6 +1977,53 @@
       <c r="B10" s="0" t="n">
         <v>22</v>
       </c>
+      <c r="C10" s="1" t="n">
+        <v>6257274</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>1045</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>147305</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>693</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>1556</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <f aca="false">L10+H10+D10</f>
+        <v>3294</v>
+      </c>
+      <c r="O10" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="F21" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/cascade/cascade_results.xlsx
+++ b/cascade/cascade_results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="order6" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,7 +13,8 @@
     <sheet name="order8" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="order9" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="order10" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="summary" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="order11" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="summary" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="49">
   <si>
     <t xml:space="preserve">Order</t>
   </si>
@@ -66,6 +67,12 @@
     <t xml:space="preserve">Time w/ invariants (s)</t>
   </si>
   <si>
+    <t xml:space="preserve">one inequality:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A^2 != a^4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Model Filter Time w/o invariants (s)</t>
   </si>
   <si>
@@ -78,6 +85,33 @@
     <t xml:space="preserve">a^2*a^2 != a^4</t>
   </si>
   <si>
+    <t xml:space="preserve">Model Filter Time w/ invariants (s), single core</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual Time (s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N = 2 Number of non-iso models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N = 2 Time (s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24-cores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-iso for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 to 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last step, combinning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand Totla</t>
+  </si>
+  <si>
     <t xml:space="preserve">Run Date</t>
   </si>
   <si>
@@ -124,6 +158,21 @@
   </si>
   <si>
     <t xml:space="preserve">n/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final Summary </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model Filter Time(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove model containing lower order models Time (s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(48 cores for order 11, 24 cores for orders 8, 9, and 10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(7 cores for order 11. 1 core for all others)</t>
   </si>
 </sst>
 </file>
@@ -247,7 +296,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.54"/>
@@ -480,10 +529,10 @@
   <dimension ref="A4:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
+      <selection pane="topLeft" activeCell="L25" activeCellId="0" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.52"/>
@@ -747,10 +796,10 @@
   <dimension ref="A4:I27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J27" activeCellId="0" sqref="J27"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.52"/>
@@ -809,10 +858,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>2929</v>
+        <v>1602</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -820,10 +869,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>221</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -831,10 +880,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>159</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -842,10 +891,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>221</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -853,10 +902,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>447</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -864,10 +913,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>232</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -875,10 +924,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>401</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -886,10 +935,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>320</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -897,10 +946,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>419</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -908,10 +957,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>258</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -919,10 +968,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>610</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -930,10 +979,10 @@
         <v>13</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>281</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -941,10 +990,10 @@
         <v>14</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>464</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -952,10 +1001,10 @@
         <v>15</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>439</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -963,10 +1012,10 @@
         <v>16</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>545</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -974,10 +1023,10 @@
         <v>17</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>331</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -985,10 +1034,10 @@
         <v>18</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>763</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1003,11 +1052,11 @@
       </c>
       <c r="B27" s="1" t="n">
         <f aca="false">SUM(B6:B23)</f>
-        <v>3041</v>
+        <v>2030</v>
       </c>
       <c r="C27" s="1" t="n">
         <f aca="false">MAX(C6:C23)</f>
-        <v>763</v>
+        <v>15</v>
       </c>
       <c r="E27" s="1" t="n">
         <v>448</v>
@@ -1035,19 +1084,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A4:I27"/>
+  <dimension ref="A2:I27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J27" activeCellId="0" sqref="J27"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="1" width="11.52"/>
   </cols>
   <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>0</v>
@@ -1071,10 +1128,10 @@
         <v>4</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>11</v>
@@ -1096,10 +1153,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>127525</v>
+        <v>71913</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>47</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1107,10 +1164,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>4259</v>
+        <v>1075</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>4640</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1118,10 +1175,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>769</v>
+        <v>990</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>5773</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1129,10 +1186,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>0</v>
+        <v>914</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>3622</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1140,10 +1197,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>192</v>
+        <v>1174</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>3969</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1151,10 +1208,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>0</v>
+        <v>914</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>3480</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1162,10 +1219,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>3498</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1173,10 +1230,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>2982</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1184,10 +1241,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>0</v>
+        <v>974</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>5077</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1195,10 +1252,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>0</v>
+        <v>914</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>3764</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1206,10 +1263,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>192</v>
+        <v>1190</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>6398</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1217,10 +1274,10 @@
         <v>13</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>0</v>
+        <v>914</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>4091</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1228,10 +1285,10 @@
         <v>14</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>0</v>
+        <v>974</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>4164</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1239,10 +1296,10 @@
         <v>15</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>5278</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1250,10 +1307,10 @@
         <v>16</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>5953</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1261,10 +1318,10 @@
         <v>17</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>0</v>
+        <v>914</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>4287</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1272,10 +1329,10 @@
         <v>18</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>192</v>
+        <v>1174</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>6360</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1283,10 +1340,10 @@
         <v>19</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>0</v>
+        <v>914</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>3403</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1294,10 +1351,10 @@
         <v>20</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>6922</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1306,11 +1363,11 @@
       </c>
       <c r="B27" s="1" t="n">
         <f aca="false">SUM(B6:B25)</f>
-        <v>133129</v>
+        <v>90118</v>
       </c>
       <c r="C27" s="1" t="n">
         <f aca="false">MAX(C6:C25)</f>
-        <v>6922</v>
+        <v>100</v>
       </c>
       <c r="E27" s="1" t="n">
         <v>7510</v>
@@ -1344,20 +1401,20 @@
   <dimension ref="A2:H29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.79"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1365,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1"/>
       <c r="E4" s="1"/>
@@ -1386,7 +1443,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>11</v>
@@ -1724,25 +1781,780 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:P21"/>
+  <dimension ref="A4:N40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E38" activeCellId="0" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="5.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="8" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" s="5" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>479585404</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>2996</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>994782</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>10768</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>12575057</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>2679</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>436884</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>6382</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>1183017</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>11824</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>12907541</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>3872</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>455459</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>6409</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>1546223</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>10296</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>12457010</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>3899</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>426782</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>6269</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>1238143</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>12604</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <f aca="false">MAX(K7:K10)</f>
+        <v>12604</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>13208956</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>4714</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>477676</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>6747</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <f aca="false">MAX(F8:F11)</f>
+        <v>6747</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>1014845</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>11247</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>12456889</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>4055</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>426725</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>6390</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>1069117</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>11222</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>12913885</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>4682</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>455785</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>6587</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>1238562</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>10832</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>12731836</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>4370</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>447680</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>6967</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>1559391</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>12479</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>12906047</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>4710</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>454251</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>6631</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <v>1108681</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>12191</v>
+      </c>
+      <c r="L15" s="1" t="n">
+        <f aca="false">MAX(K11:K15)</f>
+        <v>12479</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>12456889</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>4230</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>426725</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>6423</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>1073918</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>9396</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <v>2929438</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>13217091</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>5130</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>479290</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>6757</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <f aca="false">MAX(F12:F17)</f>
+        <v>6967</v>
+      </c>
+      <c r="J17" s="1" t="n">
+        <v>1014373</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>10673</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>12456889</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>4357</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>426725</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>6843</v>
+      </c>
+      <c r="J18" s="1" t="n">
+        <v>1093245</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>9637</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>12905793</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>4988</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>454179</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>7182</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <v>1096084</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>10530</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>12732074</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>4855</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>447745</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>7109</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <v>1099154</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>9465</v>
+      </c>
+      <c r="L20" s="1" t="n">
+        <f aca="false">MAX(K16:K20)</f>
+        <v>10673</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>12913885</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>5374</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>455785</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>7194</v>
+      </c>
+      <c r="J21" s="1" t="n">
+        <v>1152842</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>9349</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>12456889</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>4873</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>426725</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>6973</v>
+      </c>
+      <c r="J22" s="1" t="n">
+        <v>1108871</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>9353</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>13208956</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>5585</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>477676</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>7328</v>
+      </c>
+      <c r="J23" s="1" t="n">
+        <v>1055576</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>10889</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>12456889</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>4867</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>426725</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>6967</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <f aca="false">MAX(F18:F24)</f>
+        <v>7328</v>
+      </c>
+      <c r="J24" s="1" t="n">
+        <v>1096914</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>9389</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>12914139</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>5516</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>455857</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>7542</v>
+      </c>
+      <c r="J25" s="1" t="n">
+        <v>1362636</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>11351</v>
+      </c>
+      <c r="L25" s="1" t="n">
+        <f aca="false">MAX(K21:K25)</f>
+        <v>11351</v>
+      </c>
+      <c r="N25" s="1" t="n">
+        <v>2845339</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>12731836</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>5332</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>447680</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>7490</v>
+      </c>
+      <c r="J26" s="1" t="n">
+        <v>1115512</v>
+      </c>
+      <c r="K26" s="1" t="n">
+        <v>11307</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>12905793</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>5714</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>454179</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>7532</v>
+      </c>
+      <c r="J27" s="1" t="n">
+        <v>1191758</v>
+      </c>
+      <c r="K27" s="1" t="n">
+        <v>11321</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>12456889</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>5255</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>426725</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>7336</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <f aca="false">MAX(F25:F28)</f>
+        <v>7542</v>
+      </c>
+      <c r="J28" s="1" t="n">
+        <v>1425693</v>
+      </c>
+      <c r="K28" s="1" t="n">
+        <v>12643</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>13217091</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>6306</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>479290</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>6324</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <f aca="false">F29</f>
+        <v>6324</v>
+      </c>
+      <c r="J29" s="1" t="n">
+        <v>863258</v>
+      </c>
+      <c r="K29" s="1" t="n">
+        <v>13350</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J30" s="1" t="n">
+        <v>1344201</v>
+      </c>
+      <c r="K30" s="1" t="n">
+        <v>12409</v>
+      </c>
+      <c r="L30" s="1" t="n">
+        <f aca="false">MAX(K26:K30)</f>
+        <v>13350</v>
+      </c>
+      <c r="N30" s="1" t="n">
+        <f aca="false">SUM(J26:J30)</f>
+        <v>5940422</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <f aca="false">SUM(B6:B29)</f>
+        <v>760773728</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <f aca="false">MAX(C6:C29)+C7</f>
+        <v>9302</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <f aca="false">SUM(E6:E29)</f>
+        <v>9866548</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <f aca="false">SUM(H7:H29)</f>
+        <v>34908</v>
+      </c>
+      <c r="J33" s="1" t="n">
+        <f aca="false">SUM(J7:J29)</f>
+        <v>26702595</v>
+      </c>
+      <c r="L33" s="1" t="n">
+        <f aca="false">SUM(L7:L29)</f>
+        <v>47107</v>
+      </c>
+      <c r="N33" s="1" t="n">
+        <f aca="false">N25+N16+E35+N30</f>
+        <v>12194561</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>479362</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>5713</v>
+      </c>
+    </row>
+    <row r="37" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0"/>
+      <c r="C37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="N37" s="4"/>
+    </row>
+    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="4" t="n">
+        <v>12194561</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <f aca="false">F35+L33+C37</f>
+        <v>52820</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>3523513</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>6222</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <f aca="false">F38+L33</f>
+        <v>53329</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:P26"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="3.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="3.18"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="13.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="14.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="3.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="10.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="11.52"/>
@@ -1750,30 +2562,30 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="true" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1781,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>2</v>
@@ -1794,30 +2606,30 @@
         <v>4</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1840,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="N6" s="1" t="n">
         <f aca="false">G6+D6</f>
@@ -1900,16 +2712,16 @@
         <v>18</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>3041</v>
+        <v>2030</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>763</v>
+        <v>16</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>448</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="n">
         <f aca="false">38*60+45</f>
@@ -1920,7 +2732,7 @@
       </c>
       <c r="N8" s="1" t="n">
         <f aca="false">D8+G8+L8</f>
-        <v>781</v>
+        <v>21</v>
       </c>
       <c r="O8" s="1" t="n">
         <v>3</v>
@@ -1937,20 +2749,16 @@
         <v>20</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>133129</v>
+        <v>90118</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>6922</v>
+        <v>100</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>7510</v>
       </c>
-      <c r="G9" s="1" t="n">
-        <f aca="false">12*3600-64</f>
-        <v>43136</v>
-      </c>
       <c r="H9" s="1" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K9" s="1" t="n">
         <f aca="false">7*3600+7*60-7</f>
@@ -1961,7 +2769,7 @@
       </c>
       <c r="N9" s="1" t="n">
         <f aca="false">D9+H9+L9</f>
-        <v>6960</v>
+        <v>134</v>
       </c>
       <c r="O9" s="1" t="n">
         <v>7</v>
@@ -2003,27 +2811,288 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>760773728</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>9302</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>3523513</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>53329</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <v>5317</v>
+      </c>
+      <c r="N11" s="1" t="n">
+        <f aca="false">L11+H11+D11</f>
+        <v>67948</v>
+      </c>
+      <c r="O11" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" s="5" customFormat="true" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="E19" s="4"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="F19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
+      <c r="J19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
     </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L20" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="A21" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>115</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L21" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>2030</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L22" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>90118</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>7510</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="J23" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="L23" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>6257274</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>1045</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>147305</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>693</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>1556</v>
+      </c>
+      <c r="J24" s="1" t="n">
+        <v>3294</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L24" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>760773728</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>9302</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>3523513</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>53329</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>5317</v>
+      </c>
+      <c r="J25" s="1" t="n">
+        <v>67948</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="L25" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" s="5" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/cascade/cascade_results.xlsx
+++ b/cascade/cascade_results.xlsx
@@ -15,6 +15,9 @@
     <sheet name="order10" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="order11" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="summary" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="summary_upto_22" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="order10_upto_22" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="order11_upto_24" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="56">
   <si>
     <t xml:space="preserve">Order</t>
   </si>
@@ -85,6 +88,12 @@
     <t xml:space="preserve">a^2*a^2 != a^4</t>
   </si>
   <si>
+    <t xml:space="preserve">1 thread to remove isomorphic models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">only </t>
+  </si>
+  <si>
     <t xml:space="preserve">Model Filter Time w/ invariants (s), single core</t>
   </si>
   <si>
@@ -94,96 +103,112 @@
     <t xml:space="preserve">N = 2 Number of non-iso models</t>
   </si>
   <si>
+    <t xml:space="preserve">#Mace models for n = 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-iso for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 to 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last step, combinning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nov 11, 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filtering </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mace4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Removing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">models with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">containment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n from 1 to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAP Time to filter out lower orders, single thread (s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallel GAP Time to Filter out lower orders – 4 threads(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use IsomorphismAlgebras to filter out lower order models (s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Time (s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final #models, up to isomorphism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final #models up to isomorphism and anti-isomorphism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final Summary </t>
+  </si>
+  <si>
+    <t xml:space="preserve">scutum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 cores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model Filter Time(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove model containing lower order models Time (s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(7 cores for order 11. 1 core for all others)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nov 7, 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(48 cores for order 11, 24 cores for orders 8, 9, and 10)</t>
+  </si>
+  <si>
     <t xml:space="preserve">N = 2 Time (s)</t>
   </si>
   <si>
     <t xml:space="preserve">24-cores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-iso for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 to 24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last step, combinning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grand Totla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nov 7, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filtering </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mace4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Models</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Removing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">models with</t>
-  </si>
-  <si>
-    <t xml:space="preserve">containment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n from 1 to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAP Time to filter out lower orders, single thread (s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parallel GAP Time to Filter out lower orders – 4 threads(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use IsomorphismAlgebras to filter out lower order models (s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Time (s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Final #models, up to isomorphism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Final #models up to isomorphism and anti-isomorphism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n/a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Final Summary </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model Filter Time(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove model containing lower order models Time (s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(48 cores for order 11, 24 cores for orders 8, 9, and 10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(7 cores for order 11. 1 core for all others)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
+    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -204,6 +229,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -248,7 +278,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -271,6 +301,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -296,7 +334,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.54"/>
@@ -514,6 +552,760 @@
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A4:N40"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="5.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="8" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" s="5" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>479585404</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>2996</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>994782</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>10768</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>12575057</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>2679</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>436884</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>6382</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>1183017</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>11824</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>12907541</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>3872</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>455459</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>6409</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>1546223</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>10296</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>12457010</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>3899</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>426782</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>6269</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>1238143</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>12604</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <f aca="false">MAX(K7:K10)</f>
+        <v>12604</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>13208956</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>4714</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>477676</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>6747</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <f aca="false">MAX(F8:F11)</f>
+        <v>6747</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>1014845</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>11247</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>12456889</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>4055</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>426725</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>6390</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>1069117</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>11222</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>12913885</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>4682</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>455785</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>6587</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>1238562</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>10832</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>12731836</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>4370</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>447680</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>6967</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>1559391</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>12479</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>12906047</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>4710</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>454251</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>6631</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <v>1108681</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>12191</v>
+      </c>
+      <c r="L15" s="1" t="n">
+        <f aca="false">MAX(K11:K15)</f>
+        <v>12479</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>12456889</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>4230</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>426725</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>6423</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>1073918</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>9396</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <v>2929438</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>13217091</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>5130</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>479290</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>6757</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <f aca="false">MAX(F12:F17)</f>
+        <v>6967</v>
+      </c>
+      <c r="J17" s="1" t="n">
+        <v>1014373</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>10673</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>12456889</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>4357</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>426725</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>6843</v>
+      </c>
+      <c r="J18" s="1" t="n">
+        <v>1093245</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>9637</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>12905793</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>4988</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>454179</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>7182</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <v>1096084</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>10530</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>12732074</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>4855</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>447745</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>7109</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <v>1099154</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>9465</v>
+      </c>
+      <c r="L20" s="1" t="n">
+        <f aca="false">MAX(K16:K20)</f>
+        <v>10673</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>12913885</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>5374</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>455785</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>7194</v>
+      </c>
+      <c r="J21" s="1" t="n">
+        <v>1152842</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>9349</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>12456889</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>4873</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>426725</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>6973</v>
+      </c>
+      <c r="J22" s="1" t="n">
+        <v>1108871</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>9353</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>13208956</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>5585</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>477676</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>7328</v>
+      </c>
+      <c r="J23" s="1" t="n">
+        <v>1055576</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>10889</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>12456889</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>4867</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>426725</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>6967</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <f aca="false">MAX(F18:F24)</f>
+        <v>7328</v>
+      </c>
+      <c r="J24" s="1" t="n">
+        <v>1096914</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>9389</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>12914139</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>5516</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>455857</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>7542</v>
+      </c>
+      <c r="J25" s="1" t="n">
+        <v>1362636</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>11351</v>
+      </c>
+      <c r="L25" s="1" t="n">
+        <f aca="false">MAX(K21:K25)</f>
+        <v>11351</v>
+      </c>
+      <c r="N25" s="1" t="n">
+        <v>2845339</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>12731836</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>5332</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>447680</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>7490</v>
+      </c>
+      <c r="J26" s="1" t="n">
+        <v>1115512</v>
+      </c>
+      <c r="K26" s="1" t="n">
+        <v>11307</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>12905793</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>5714</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>454179</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>7532</v>
+      </c>
+      <c r="J27" s="1" t="n">
+        <v>1191758</v>
+      </c>
+      <c r="K27" s="1" t="n">
+        <v>11321</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>12456889</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>5255</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>426725</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>7336</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <f aca="false">MAX(F25:F28)</f>
+        <v>7542</v>
+      </c>
+      <c r="J28" s="1" t="n">
+        <v>1425693</v>
+      </c>
+      <c r="K28" s="1" t="n">
+        <v>12643</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>13217091</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>6306</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>479290</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>6324</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <f aca="false">F29</f>
+        <v>6324</v>
+      </c>
+      <c r="J29" s="1" t="n">
+        <v>863258</v>
+      </c>
+      <c r="K29" s="1" t="n">
+        <v>13350</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J30" s="1" t="n">
+        <v>1344201</v>
+      </c>
+      <c r="K30" s="1" t="n">
+        <v>12409</v>
+      </c>
+      <c r="L30" s="1" t="n">
+        <f aca="false">MAX(K26:K30)</f>
+        <v>13350</v>
+      </c>
+      <c r="N30" s="1" t="n">
+        <f aca="false">SUM(J26:J30)</f>
+        <v>5940422</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <f aca="false">SUM(B6:B29)</f>
+        <v>760773728</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <f aca="false">MAX(C6:C29)+C7</f>
+        <v>9302</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <f aca="false">SUM(E6:E29)</f>
+        <v>9866548</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <f aca="false">SUM(H7:H29)</f>
+        <v>34908</v>
+      </c>
+      <c r="J33" s="1" t="n">
+        <f aca="false">SUM(J7:J29)</f>
+        <v>26702595</v>
+      </c>
+      <c r="L33" s="1" t="n">
+        <f aca="false">SUM(L7:L29)</f>
+        <v>47107</v>
+      </c>
+      <c r="N33" s="1" t="n">
+        <f aca="false">N25+N16+E35+N30</f>
+        <v>12194561</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>479362</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>5713</v>
+      </c>
+    </row>
+    <row r="37" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0"/>
+      <c r="C37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="N37" s="4"/>
+    </row>
+    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="4" t="n">
+        <v>12194561</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <f aca="false">F35+L33+C37</f>
+        <v>52820</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>3523513</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>6222</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <f aca="false">F38+L33</f>
+        <v>53329</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -532,7 +1324,7 @@
       <selection pane="topLeft" activeCell="L25" activeCellId="0" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.52"/>
@@ -799,7 +1591,7 @@
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.52"/>
@@ -1087,10 +1879,10 @@
   <dimension ref="A2:I27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="11.52"/>
@@ -1398,22 +2190,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:H29"/>
+  <dimension ref="A2:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="H39" activeCellId="0" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.79"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1424,9 +2216,6 @@
       <c r="B4" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
@@ -1438,14 +2227,14 @@
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1459,8 +2248,6 @@
       <c r="C6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -1470,10 +2257,8 @@
         <v>4916789</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>707</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+        <v>676</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -1483,10 +2268,8 @@
         <v>67059</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+        <v>209</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -1496,10 +2279,8 @@
         <v>67324</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>363</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+        <v>391</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -1509,10 +2290,8 @@
         <v>62916</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>423</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+        <v>446</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -1522,10 +2301,8 @@
         <v>73154</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>590</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+        <v>596</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -1535,10 +2312,8 @@
         <v>62904</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>448</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+        <v>461</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
@@ -1548,10 +2323,8 @@
         <v>67397</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>575</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+        <v>586</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
@@ -1561,10 +2334,8 @@
         <v>68448</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>521</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+        <v>529</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -1574,10 +2345,8 @@
         <v>67130</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>604</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+        <v>570</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -1587,10 +2356,8 @@
         <v>62904</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>513</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+        <v>522</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
@@ -1600,10 +2367,8 @@
         <v>73433</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>728</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+        <v>669</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
@@ -1613,10 +2378,8 @@
         <v>62904</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>544</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+        <v>547</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -1626,10 +2389,8 @@
         <v>67118</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>703</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+        <v>689</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
@@ -1639,10 +2400,8 @@
         <v>68460</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>668</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+        <v>653</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
@@ -1652,10 +2411,8 @@
         <v>67397</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>789</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+        <v>678</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
@@ -1665,10 +2422,8 @@
         <v>62904</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>665</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+        <v>611</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
@@ -1678,10 +2433,8 @@
         <v>73154</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>917</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+        <v>787</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
@@ -1691,10 +2444,8 @@
         <v>62904</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>728</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+        <v>688</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
@@ -1704,10 +2455,8 @@
         <v>67409</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>947</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+        <v>773</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
@@ -1717,10 +2466,8 @@
         <v>68448</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>878</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+        <v>760</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
@@ -1730,39 +2477,128 @@
         <v>67118</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>1023</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+        <v>816</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="A28" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>62904</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>731</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>73433</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>62916</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>67118</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>68448</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>67397</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>62904</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>73166</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="1" t="n">
-        <f aca="false">SUM(B6:B27)</f>
-        <v>6257274</v>
-      </c>
-      <c r="C29" s="1" t="n">
-        <f aca="false">MAX(C6:C27)+22</f>
-        <v>1045</v>
-      </c>
-      <c r="E29" s="1" t="n">
+      <c r="B38" s="1" t="n">
+        <f aca="false">SUM(B6:B35)</f>
+        <v>6795560</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <f aca="false">MAX(C6:C35)</f>
+        <v>1098</v>
+      </c>
+      <c r="E38" s="1" t="n">
         <v>147305</v>
       </c>
-      <c r="F29" s="1" t="n">
-        <f aca="false">583+87+23</f>
-        <v>693</v>
-      </c>
-      <c r="H29" s="0" t="n">
-        <f aca="false">26*60-4</f>
-        <v>1556</v>
+      <c r="F38" s="1" t="n">
+        <f aca="false">723+26</f>
+        <v>749</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <f aca="false">12+15*60+41</f>
+        <v>953</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <f aca="false">49*60+36</f>
+        <v>2976</v>
       </c>
     </row>
   </sheetData>
@@ -1781,21 +2617,53 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A4:N40"/>
+  <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E38" activeCellId="0" sqref="E38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F37" activeCellId="0" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="5.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="8" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="9" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="18" min="17" style="1" width="11.52"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>0</v>
@@ -1803,8 +2671,15 @@
       <c r="B4" s="1" t="n">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" s="5" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1819,23 +2694,25 @@
         <v>4</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="5"/>
       <c r="N5" s="4"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -1847,6 +2724,25 @@
       <c r="C6" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="n">
+        <v>9284111</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>2610184</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="Q6" s="1" t="n">
+        <v>20429690</v>
+      </c>
+      <c r="R6" s="1" t="n">
+        <f aca="false">SUM(Q6:Q42)</f>
+        <v>479585404</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -1855,669 +2751,670 @@
       <c r="B7" s="1" t="n">
         <v>479585404</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>2996</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>23</v>
+      <c r="C7" s="6" t="n">
+        <f aca="false">2600-7*60</f>
+        <v>2180</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>3044151</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <f aca="false">12*3600-25*60+4*3600+42*60+7+4940+1086</f>
+        <v>64653</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="n">
+        <v>9455967</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>994782</v>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>10768</v>
+        <v>2839114</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="Q7" s="1" t="n">
+        <v>20364692</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B8" s="1" t="n">
-        <v>12575057</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>2679</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>436884</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>6382</v>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="n">
+        <v>10000697</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>1183017</v>
-      </c>
-      <c r="K8" s="1" t="n">
-        <v>11824</v>
+        <v>2782533</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="Q8" s="1" t="n">
+        <v>20096057</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B9" s="1" t="n">
-        <v>12907541</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>3872</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>455459</v>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>6409</v>
-      </c>
-      <c r="J9" s="1" t="n">
-        <v>1546223</v>
-      </c>
-      <c r="K9" s="1" t="n">
-        <v>10296</v>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="Q9" s="1" t="n">
+        <v>20694632</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B10" s="1" t="n">
-        <v>12457010</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>3899</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>426782</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>6269</v>
-      </c>
-      <c r="J10" s="1" t="n">
-        <v>1238143</v>
-      </c>
-      <c r="K10" s="1" t="n">
-        <v>12604</v>
-      </c>
-      <c r="L10" s="1" t="n">
-        <f aca="false">MAX(K7:K10)</f>
-        <v>12604</v>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="n">
+        <v>8231831</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="Q10" s="1" t="n">
+        <v>20129079</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B11" s="1" t="n">
-        <v>13208956</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>4714</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <v>477676</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>6747</v>
-      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
       <c r="H11" s="1" t="n">
         <f aca="false">MAX(F8:F11)</f>
-        <v>6747</v>
-      </c>
-      <c r="J11" s="1" t="n">
-        <v>1014845</v>
-      </c>
-      <c r="K11" s="1" t="n">
-        <v>11247</v>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="Q11" s="1" t="n">
+        <v>21068178</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B12" s="1" t="n">
-        <v>12456889</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>4055</v>
-      </c>
-      <c r="E12" s="1" t="n">
-        <v>426725</v>
-      </c>
-      <c r="F12" s="1" t="n">
-        <v>6390</v>
-      </c>
-      <c r="J12" s="1" t="n">
-        <v>1069117</v>
-      </c>
-      <c r="K12" s="1" t="n">
-        <v>11222</v>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="Q12" s="1" t="n">
+        <v>20015876</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B13" s="1" t="n">
-        <v>12913885</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>4682</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <v>455785</v>
-      </c>
-      <c r="F13" s="1" t="n">
-        <v>6587</v>
-      </c>
-      <c r="J13" s="1" t="n">
-        <v>1238562</v>
-      </c>
-      <c r="K13" s="1" t="n">
-        <v>10832</v>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="Q13" s="1" t="n">
+        <v>20504383</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B14" s="1" t="n">
-        <v>12731836</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>4370</v>
-      </c>
-      <c r="E14" s="1" t="n">
-        <v>447680</v>
-      </c>
-      <c r="F14" s="1" t="n">
-        <v>6967</v>
-      </c>
-      <c r="J14" s="1" t="n">
-        <v>1559391</v>
-      </c>
-      <c r="K14" s="1" t="n">
-        <v>12479</v>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="Q14" s="1" t="n">
+        <v>19005367</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B15" s="1" t="n">
-        <v>12906047</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>4710</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <v>454251</v>
-      </c>
-      <c r="F15" s="1" t="n">
-        <v>6631</v>
-      </c>
-      <c r="J15" s="1" t="n">
-        <v>1108681</v>
-      </c>
-      <c r="K15" s="1" t="n">
-        <v>12191</v>
-      </c>
-      <c r="L15" s="1" t="n">
-        <f aca="false">MAX(K11:K15)</f>
-        <v>12479</v>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="Q15" s="1" t="n">
+        <v>19380897</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B16" s="1" t="n">
-        <v>12456889</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>4230</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <v>426725</v>
-      </c>
-      <c r="F16" s="1" t="n">
-        <v>6423</v>
-      </c>
-      <c r="J16" s="1" t="n">
-        <v>1073918</v>
-      </c>
-      <c r="K16" s="1" t="n">
-        <v>9396</v>
-      </c>
-      <c r="N16" s="1" t="n">
-        <v>2929438</v>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="Q16" s="1" t="n">
+        <v>20735673</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B17" s="1" t="n">
-        <v>13217091</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>5130</v>
-      </c>
-      <c r="E17" s="1" t="n">
-        <v>479290</v>
-      </c>
-      <c r="F17" s="1" t="n">
-        <v>6757</v>
-      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
       <c r="H17" s="1" t="n">
         <f aca="false">MAX(F12:F17)</f>
-        <v>6967</v>
-      </c>
-      <c r="J17" s="1" t="n">
-        <v>1014373</v>
-      </c>
-      <c r="K17" s="1" t="n">
-        <v>10673</v>
+        <v>0</v>
+      </c>
+      <c r="L17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="Q17" s="1" t="n">
+        <v>20179969</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B18" s="1" t="n">
-        <v>12456889</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>4357</v>
-      </c>
-      <c r="E18" s="1" t="n">
-        <v>426725</v>
-      </c>
-      <c r="F18" s="1" t="n">
-        <v>6843</v>
-      </c>
-      <c r="J18" s="1" t="n">
-        <v>1093245</v>
-      </c>
-      <c r="K18" s="1" t="n">
-        <v>9637</v>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="Q18" s="1" t="n">
+        <v>21034304</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B19" s="1" t="n">
-        <v>12905793</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>4988</v>
-      </c>
-      <c r="E19" s="1" t="n">
-        <v>454179</v>
-      </c>
-      <c r="F19" s="1" t="n">
-        <v>7182</v>
-      </c>
-      <c r="J19" s="1" t="n">
-        <v>1096084</v>
-      </c>
-      <c r="K19" s="1" t="n">
-        <v>10530</v>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="Q19" s="1" t="n">
+        <v>18857255</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B20" s="1" t="n">
-        <v>12732074</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>4855</v>
-      </c>
-      <c r="E20" s="1" t="n">
-        <v>447745</v>
-      </c>
-      <c r="F20" s="1" t="n">
-        <v>7109</v>
-      </c>
-      <c r="J20" s="1" t="n">
-        <v>1099154</v>
-      </c>
-      <c r="K20" s="1" t="n">
-        <v>9465</v>
-      </c>
-      <c r="L20" s="1" t="n">
-        <f aca="false">MAX(K16:K20)</f>
-        <v>10673</v>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="Q20" s="1" t="n">
+        <v>19129890</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B21" s="1" t="n">
-        <v>12913885</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>5374</v>
-      </c>
-      <c r="E21" s="1" t="n">
-        <v>455785</v>
-      </c>
-      <c r="F21" s="1" t="n">
-        <v>7194</v>
-      </c>
-      <c r="J21" s="1" t="n">
-        <v>1152842</v>
-      </c>
-      <c r="K21" s="1" t="n">
-        <v>9349</v>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="Q21" s="1" t="n">
+        <v>19555457</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="B22" s="1" t="n">
-        <v>12456889</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>4873</v>
-      </c>
-      <c r="E22" s="1" t="n">
-        <v>426725</v>
-      </c>
-      <c r="F22" s="1" t="n">
-        <v>6973</v>
-      </c>
-      <c r="J22" s="1" t="n">
-        <v>1108871</v>
-      </c>
-      <c r="K22" s="1" t="n">
-        <v>9353</v>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="Q22" s="1" t="n">
+        <v>19425578</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="B23" s="1" t="n">
-        <v>13208956</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>5585</v>
-      </c>
-      <c r="E23" s="1" t="n">
-        <v>477676</v>
-      </c>
-      <c r="F23" s="1" t="n">
-        <v>7328</v>
-      </c>
-      <c r="J23" s="1" t="n">
-        <v>1055576</v>
-      </c>
-      <c r="K23" s="1" t="n">
-        <v>10889</v>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="Q23" s="1" t="n">
+        <v>19695850</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B24" s="1" t="n">
-        <v>12456889</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>4867</v>
-      </c>
-      <c r="E24" s="1" t="n">
-        <v>426725</v>
-      </c>
-      <c r="F24" s="1" t="n">
-        <v>6967</v>
-      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
       <c r="H24" s="1" t="n">
         <f aca="false">MAX(F18:F24)</f>
-        <v>7328</v>
-      </c>
-      <c r="J24" s="1" t="n">
-        <v>1096914</v>
-      </c>
-      <c r="K24" s="1" t="n">
-        <v>9389</v>
+        <v>0</v>
+      </c>
+      <c r="L24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="Q24" s="1" t="n">
+        <v>19561816</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="B25" s="1" t="n">
-        <v>12914139</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>5516</v>
-      </c>
-      <c r="E25" s="1" t="n">
-        <v>455857</v>
-      </c>
-      <c r="F25" s="1" t="n">
-        <v>7542</v>
-      </c>
-      <c r="J25" s="1" t="n">
-        <v>1362636</v>
-      </c>
-      <c r="K25" s="1" t="n">
-        <v>11351</v>
-      </c>
-      <c r="L25" s="1" t="n">
-        <f aca="false">MAX(K21:K25)</f>
-        <v>11351</v>
-      </c>
-      <c r="N25" s="1" t="n">
-        <v>2845339</v>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="Q25" s="1" t="n">
+        <v>20487940</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="B26" s="1" t="n">
-        <v>12731836</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>5332</v>
-      </c>
-      <c r="E26" s="1" t="n">
-        <v>447680</v>
-      </c>
-      <c r="F26" s="1" t="n">
-        <v>7490</v>
-      </c>
-      <c r="J26" s="1" t="n">
-        <v>1115512</v>
-      </c>
-      <c r="K26" s="1" t="n">
-        <v>11307</v>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="Q26" s="1" t="n">
+        <v>18009224</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="B27" s="1" t="n">
-        <v>12905793</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>5714</v>
-      </c>
-      <c r="E27" s="1" t="n">
-        <v>454179</v>
-      </c>
-      <c r="F27" s="1" t="n">
-        <v>7532</v>
-      </c>
-      <c r="J27" s="1" t="n">
-        <v>1191758</v>
-      </c>
-      <c r="K27" s="1" t="n">
-        <v>11321</v>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="Q27" s="1" t="n">
+        <v>19887842</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="B28" s="1" t="n">
-        <v>12456889</v>
-      </c>
-      <c r="C28" s="1" t="n">
-        <v>5255</v>
-      </c>
-      <c r="E28" s="1" t="n">
-        <v>426725</v>
-      </c>
-      <c r="F28" s="1" t="n">
-        <v>7336</v>
-      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
       <c r="H28" s="1" t="n">
         <f aca="false">MAX(F25:F28)</f>
-        <v>7542</v>
-      </c>
-      <c r="J28" s="1" t="n">
-        <v>1425693</v>
-      </c>
-      <c r="K28" s="1" t="n">
-        <v>12643</v>
+        <v>0</v>
+      </c>
+      <c r="L28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="Q28" s="1" t="n">
+        <v>20835630</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="B29" s="1" t="n">
-        <v>13217091</v>
-      </c>
-      <c r="C29" s="1" t="n">
-        <v>6306</v>
-      </c>
-      <c r="E29" s="1" t="n">
-        <v>479290</v>
-      </c>
-      <c r="F29" s="1" t="n">
-        <v>6324</v>
-      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
       <c r="H29" s="1" t="n">
         <f aca="false">F29</f>
-        <v>6324</v>
-      </c>
-      <c r="J29" s="1" t="n">
-        <v>863258</v>
-      </c>
-      <c r="K29" s="1" t="n">
-        <v>13350</v>
+        <v>0</v>
+      </c>
+      <c r="L29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="Q29" s="1" t="n">
+        <v>20500125</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J30" s="1" t="n">
-        <v>1344201</v>
-      </c>
-      <c r="K30" s="1" t="n">
-        <v>12409</v>
-      </c>
-      <c r="L30" s="1" t="n">
-        <f aca="false">MAX(K26:K30)</f>
-        <v>13350</v>
-      </c>
-      <c r="N30" s="1" t="n">
-        <f aca="false">SUM(J26:J30)</f>
-        <v>5940422</v>
-      </c>
+      <c r="A30" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="N32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>357863064</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <f aca="false">2*3600+15*60-6</f>
+        <v>8094</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <f aca="false">4913982+5379356+2262117</f>
+        <v>12555455</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <f aca="false"> 2*3600+17*60+42+2*3600-4*60-27+2*3600+12*60+42+7200-7+7200-3*60-39+692+402+420</f>
+        <v>38845</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <v>479362</v>
+      </c>
+      <c r="J36" s="1" t="n">
+        <v>639</v>
+      </c>
+      <c r="L36" s="1"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1" t="n">
+        <v>479362</v>
+      </c>
+      <c r="J37" s="1" t="n">
+        <f aca="false">11*60+2</f>
+        <v>662</v>
+      </c>
+      <c r="L37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1" t="n">
+        <f aca="false">3220841-479362*2</f>
+        <v>2262117</v>
+      </c>
+      <c r="J38" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="L38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="1" t="n">
-        <f aca="false">SUM(B6:B29)</f>
-        <v>760773728</v>
-      </c>
-      <c r="C33" s="1" t="n">
-        <f aca="false">MAX(C6:C29)+C7</f>
-        <v>9302</v>
-      </c>
-      <c r="E33" s="1" t="n">
+      <c r="B39" s="1" t="n">
+        <f aca="false">SUM(B6:B36)</f>
+        <v>837448468</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <f aca="false">MAX(C8:C36)+C7</f>
+        <v>10274</v>
+      </c>
+      <c r="E39" s="1" t="n">
         <f aca="false">SUM(E6:E29)</f>
-        <v>9866548</v>
-      </c>
-      <c r="H33" s="1" t="n">
-        <f aca="false">SUM(H7:H29)</f>
-        <v>34908</v>
-      </c>
-      <c r="J33" s="1" t="n">
-        <f aca="false">SUM(J7:J29)</f>
-        <v>26702595</v>
-      </c>
-      <c r="L33" s="1" t="n">
-        <f aca="false">SUM(L7:L29)</f>
-        <v>47107</v>
-      </c>
-      <c r="N33" s="1" t="n">
-        <f aca="false">N25+N16+E35+N30</f>
+        <v>3044151</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>479362</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>5713</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+    </row>
+    <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="4" t="n">
         <v>12194561</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" s="1" t="n">
-        <v>479362</v>
-      </c>
-      <c r="F35" s="1" t="n">
+      <c r="C44" s="1" t="n">
+        <f aca="false">F41+L39+C43</f>
         <v>5713</v>
       </c>
-    </row>
-    <row r="37" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0"/>
-      <c r="C37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="N37" s="4"/>
-    </row>
-    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" s="4" t="n">
-        <v>12194561</v>
-      </c>
-      <c r="C38" s="1" t="n">
-        <f aca="false">F35+L33+C37</f>
-        <v>52820</v>
-      </c>
-      <c r="E38" s="1" t="n">
+      <c r="E44" s="1" t="n">
         <v>3523513</v>
       </c>
-      <c r="F38" s="1" t="n">
+      <c r="F44" s="1" t="n">
         <v>6222</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F40" s="1" t="n">
-        <f aca="false">F38+L33</f>
-        <v>53329</v>
-      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1" t="n">
+        <f aca="false">F44+L39</f>
+        <v>6222</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="N46" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2535,21 +3432,783 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:P25"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J25" activeCellId="0" sqref="J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1" t="n">
+        <f aca="false">G5+D5</f>
+        <v>7</v>
+      </c>
+      <c r="O5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>115</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1" t="n">
+        <f aca="false">D6+F6+L6</f>
+        <v>91</v>
+      </c>
+      <c r="O6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>2030</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1" t="n">
+        <f aca="false">38*60+45</f>
+        <v>2325</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1" t="n">
+        <f aca="false">D7+G7+L7</f>
+        <v>21</v>
+      </c>
+      <c r="O7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>90118</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="n">
+        <v>7510</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1" t="n">
+        <f aca="false">7*3600+7*60-7</f>
+        <v>25613</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1" t="n">
+        <f aca="false">D8+H8+L8</f>
+        <v>134</v>
+      </c>
+      <c r="O8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>6795560</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>1098</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="n">
+        <v>147305</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="n">
+        <v>749</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1" t="n">
+        <v>953</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1" t="n">
+        <f aca="false">L9+H9+D9</f>
+        <v>2800</v>
+      </c>
+      <c r="O9" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>837448468</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>10274</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="n">
+        <v>3523513</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="n">
+        <v>38845</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1" t="n">
+        <v>5317</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1" t="n">
+        <f aca="false">L10+H10+D10</f>
+        <v>54436</v>
+      </c>
+      <c r="O10" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="5"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>115</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="G20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L20" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>2030</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L21" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>90118</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="n">
+        <v>7510</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="L22" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>6795560</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>1098</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="n">
+        <v>147305</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>749</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>953</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1" t="n">
+        <v>2800</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L23" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C24" s="7" t="n">
+        <v>837448468</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>10274</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="n">
+        <v>3523513</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>38845</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>5317</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1" t="n">
+        <v>54436</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="L24" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="5"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A2:P26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="3.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="3.18"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.64"/>
@@ -2562,30 +4221,30 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="true" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2593,7 +4252,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>2</v>
@@ -2613,23 +4272,23 @@
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2652,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N6" s="1" t="n">
         <f aca="false">G6+D6</f>
@@ -2846,7 +4505,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" s="5" customFormat="true" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2854,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>2</v>
@@ -2867,20 +4526,20 @@
         <v>4</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
@@ -3075,16 +4734,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" s="5" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" s="5" customFormat="true" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -3093,6 +4754,403 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:H33"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.8"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>4916789</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>707</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>67059</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>67324</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>62916</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>73154</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>590</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>62904</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>67397</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>575</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>68448</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>521</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>67130</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>604</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>62904</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>513</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>73433</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>728</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>62904</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>544</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>67118</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>703</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>68460</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>668</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>67397</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>789</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>62904</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>665</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>73154</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>917</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>62904</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>728</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>67409</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>947</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>68448</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>878</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>67118</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>1023</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <f aca="false">SUM(B6:B27)</f>
+        <v>6257274</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <f aca="false">MAX(C6:C27)+22</f>
+        <v>1045</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>147305</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <f aca="false">583+87+23</f>
+        <v>693</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <f aca="false">26*60-4</f>
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>73166</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>156</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/cascade/cascade_results.xlsx
+++ b/cascade/cascade_results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="order6" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,9 +15,9 @@
     <sheet name="order10" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="order11" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="summary" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="summary_upto_22" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="order10_upto_22" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="order11_upto_24" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="old_summary_upto_22" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="old_order10_upto_22" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="old_order11_upto_24" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -29,7 +29,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="56">
+  <si>
+    <t xml:space="preserve">one inequality:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A^2 != a^4</t>
+  </si>
   <si>
     <t xml:space="preserve">Order</t>
   </si>
@@ -68,12 +74,6 @@
   </si>
   <si>
     <t xml:space="preserve">Time w/ invariants (s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">one inequality:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A^2 != a^4</t>
   </si>
   <si>
     <t xml:space="preserve">Model Filter Time w/o invariants (s)</t>
@@ -208,7 +208,7 @@
     <numFmt numFmtId="165" formatCode="#,##0"/>
     <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -229,11 +229,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -303,11 +298,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -328,21 +323,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A4:AMJ21"/>
+  <dimension ref="A2:AMJ21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.54"/>
   </cols>
   <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>6</v>
@@ -350,23 +353,23 @@
     </row>
     <row r="5" s="2" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AMH5" s="0"/>
       <c r="AMI5" s="0"/>
@@ -531,7 +534,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B21" s="1" t="n">
         <f aca="false">SUM(B6:B19)</f>
@@ -567,21 +570,21 @@
   <dimension ref="A4:N40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B2:D2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="5.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="8" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="8" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>11</v>
@@ -589,17 +592,17 @@
     </row>
     <row r="5" s="5" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>21</v>
@@ -1217,7 +1220,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B33" s="1" t="n">
         <f aca="false">SUM(B6:B29)</f>
@@ -1318,21 +1321,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A4:AMJ23"/>
+  <dimension ref="A2:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L25" activeCellId="0" sqref="L25"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.52"/>
   </cols>
   <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>7</v>
@@ -1340,29 +1351,29 @@
     </row>
     <row r="5" s="2" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AMH5" s="0"/>
       <c r="AMI5" s="0"/>
@@ -1549,7 +1560,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B23" s="1" t="n">
         <f aca="false">SUM(B6:B21)</f>
@@ -1585,13 +1596,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A4:I27"/>
+  <dimension ref="A2:I27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.52"/>
@@ -1599,9 +1610,17 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="1" width="11.52"/>
   </cols>
   <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>8</v>
@@ -1609,29 +1628,29 @@
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I5" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1840,7 +1859,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B27" s="1" t="n">
         <f aca="false">SUM(B6:B23)</f>
@@ -1879,10 +1898,10 @@
   <dimension ref="A2:I27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="11.52"/>
@@ -1891,15 +1910,15 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>9</v>
@@ -1907,17 +1926,17 @@
     </row>
     <row r="5" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>15</v>
@@ -1926,7 +1945,7 @@
         <v>16</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2151,7 +2170,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B27" s="1" t="n">
         <f aca="false">SUM(B6:B25)</f>
@@ -2193,10 +2212,10 @@
   <dimension ref="A2:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H39" activeCellId="0" sqref="H39"/>
+      <selection pane="topLeft" activeCell="H39" activeCellId="1" sqref="B2:D2 H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.52"/>
   </cols>
@@ -2211,7 +2230,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>10</v>
@@ -2219,23 +2238,23 @@
     </row>
     <row r="5" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2570,7 +2589,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B38" s="1" t="n">
         <f aca="false">SUM(B6:B35)</f>
@@ -2620,10 +2639,10 @@
   <dimension ref="A1:R46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F37" activeCellId="0" sqref="F37"/>
+      <selection pane="topLeft" activeCell="F37" activeCellId="1" sqref="B2:D2 F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="9" style="1" width="11.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="18" min="17" style="1" width="11.52"/>
@@ -2654,7 +2673,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1"/>
       <c r="E3" s="1"/>
@@ -2666,7 +2685,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>11</v>
@@ -2681,17 +2700,17 @@
     </row>
     <row r="5" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>21</v>
@@ -3244,7 +3263,7 @@
         <v>12555455</v>
       </c>
       <c r="F36" s="1" t="n">
-        <f aca="false"> 2*3600+17*60+42+2*3600-4*60-27+2*3600+12*60+42+7200-7+7200-3*60-39+692+402+420</f>
+        <f aca="false">2*3600+17*60+42+2*3600-4*60-27+2*3600+12*60+42+7200-7+7200-3*60-39+692+402+420</f>
         <v>38845</v>
       </c>
       <c r="I36" s="1" t="n">
@@ -3292,7 +3311,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B39" s="1" t="n">
         <f aca="false">SUM(B6:B36)</f>
@@ -3434,11 +3453,11 @@
   </sheetPr>
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J25" activeCellId="0" sqref="J25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J25" activeCellId="1" sqref="B2:D2 J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -3504,20 +3523,20 @@
     </row>
     <row r="4" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>15</v>
@@ -3902,20 +3921,20 @@
     </row>
     <row r="18" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>49</v>
@@ -4197,10 +4216,10 @@
   <dimension ref="A2:P26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B2:D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.86"/>
@@ -4249,20 +4268,20 @@
     </row>
     <row r="5" s="2" customFormat="true" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>15</v>
@@ -4510,20 +4529,20 @@
     </row>
     <row r="19" s="5" customFormat="true" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>49</v>
@@ -4774,10 +4793,10 @@
   <dimension ref="A2:H33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B2:D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.8"/>
   </cols>
@@ -4792,7 +4811,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>10</v>
@@ -4803,23 +4822,23 @@
     </row>
     <row r="5" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5116,7 +5135,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B29" s="1" t="n">
         <f aca="false">SUM(B6:B27)</f>

--- a/cascade/cascade_results.xlsx
+++ b/cascade/cascade_results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="order6" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,10 +14,11 @@
     <sheet name="order9" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="order10" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="order11" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="summary" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="old_summary_upto_22" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="old_order10_upto_22" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="old_order11_upto_24" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="order12" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="summary" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="old_summary_upto_22" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="old_order10_upto_22" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="old_order11_upto_24" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="57">
   <si>
     <t xml:space="preserve">one inequality:</t>
   </si>
@@ -119,6 +120,9 @@
   </si>
   <si>
     <t xml:space="preserve">Grand Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
   </si>
   <si>
     <t xml:space="preserve">Run Date</t>
@@ -273,7 +277,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -302,6 +306,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -325,11 +333,11 @@
   </sheetPr>
   <dimension ref="A2:AMJ21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.54"/>
@@ -567,13 +575,410 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A2:H33"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.8"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>4916789</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>707</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>67059</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>67324</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>62916</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>73154</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>590</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>62904</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>67397</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>575</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>68448</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>521</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>67130</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>604</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>62904</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>513</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>73433</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>728</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>62904</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>544</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>67118</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>703</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>68460</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>668</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>67397</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>789</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>62904</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>665</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>73154</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>917</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>62904</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>728</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>67409</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>947</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>68448</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>878</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>67118</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>1023</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <f aca="false">SUM(B6:B27)</f>
+        <v>6257274</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <f aca="false">MAX(C6:C27)+22</f>
+        <v>1045</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>147305</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <f aca="false">583+87+23</f>
+        <v>693</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <f aca="false">26*60-4</f>
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>73166</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A4:N40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B2:D2 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.52"/>
@@ -616,7 +1021,7 @@
         <v>23</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>22</v>
@@ -645,7 +1050,7 @@
         <v>2996</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J7" s="1" t="n">
         <v>994782</v>
@@ -1323,11 +1728,11 @@
   </sheetPr>
   <dimension ref="A2:AMJ23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.52"/>
@@ -1598,11 +2003,11 @@
   </sheetPr>
   <dimension ref="A2:I27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.52"/>
@@ -1897,11 +2302,11 @@
   </sheetPr>
   <dimension ref="A2:I27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="11.52"/>
@@ -2211,13 +2616,13 @@
   </sheetPr>
   <dimension ref="A2:H41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H39" activeCellId="1" sqref="B2:D2 H39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H39" activeCellId="0" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2638,14 +3043,14 @@
   </sheetPr>
   <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F37" activeCellId="1" sqref="B2:D2 F37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I46" activeCellId="0" sqref="I46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="9" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="18" min="17" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3322,8 +3727,8 @@
         <v>10274</v>
       </c>
       <c r="E39" s="1" t="n">
-        <f aca="false">SUM(E6:E29)</f>
-        <v>3044151</v>
+        <f aca="false">SUM(E6:E36)</f>
+        <v>15599606</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -3451,751 +3856,271 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P25"/>
+  <dimension ref="A3:F35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J25" activeCellId="1" sqref="B2:D2 J25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.39"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="3" style="1" width="11.52"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-    </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1" t="n">
-        <f aca="false">G5+D5</f>
-        <v>7</v>
-      </c>
-      <c r="O5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="P5" s="0" t="n">
-        <v>2</v>
+      <c r="F5" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>115</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>57</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="n">
-        <v>32</v>
-      </c>
-      <c r="G6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1" t="n">
-        <f aca="false">D6+F6+L6</f>
-        <v>91</v>
-      </c>
-      <c r="O6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="P6" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>2030</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="n">
-        <v>448</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1" t="n">
-        <f aca="false">38*60+45</f>
-        <v>2325</v>
-      </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1" t="n">
-        <f aca="false">D7+G7+L7</f>
-        <v>21</v>
-      </c>
-      <c r="O7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="P7" s="0" t="n">
-        <v>2</v>
+      <c r="B7" s="7" t="n">
+        <v>65369185949</v>
+      </c>
+      <c r="C7" s="8" t="n">
+        <f aca="false">347630+576</f>
+        <v>348206</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>20</v>
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>14274020539</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>90118</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="n">
-        <v>7510</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1" t="n">
-        <f aca="false">7*3600+7*60-7</f>
-        <v>25613</v>
-      </c>
-      <c r="L8" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1" t="n">
-        <f aca="false">D8+H8+L8</f>
-        <v>134</v>
-      </c>
-      <c r="O8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="P8" s="0" t="n">
-        <v>5</v>
+        <v>33570</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>1965978400</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>6795560</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>1098</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="n">
-        <v>147305</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1" t="n">
-        <v>749</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1" t="n">
-        <v>953</v>
-      </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1" t="n">
-        <f aca="false">L9+H9+D9</f>
-        <v>2800</v>
-      </c>
-      <c r="O9" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="P9" s="0" t="n">
-        <v>4</v>
+        <v>13737</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>14307678473</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>34975</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>14436448376</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>36639</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>14307683685</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>56020</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>14413671891</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>36708</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>14328680591</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>36284</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>14413268572</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>37380</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>837448468</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>10274</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="n">
-        <v>3523513</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1" t="n">
-        <v>38845</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1" t="n">
-        <v>5317</v>
-      </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1" t="n">
-        <f aca="false">L10+H10+D10</f>
-        <v>54436</v>
-      </c>
-      <c r="O10" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="P10" s="0" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="5"/>
+      <c r="A17" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B19" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="D19" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="K19" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L19" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="C20" s="3" t="n">
-        <v>115</v>
-      </c>
-      <c r="D20" s="3" t="n">
-        <v>57</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="3" t="n">
-        <v>32</v>
-      </c>
-      <c r="G20" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="K20" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="L20" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>14413671891</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>2030</v>
-      </c>
-      <c r="D21" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1" t="n">
-        <v>448</v>
-      </c>
-      <c r="G21" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H21" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="K21" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="L21" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
+        <v>37494</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>90118</v>
-      </c>
-      <c r="D22" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1" t="n">
-        <v>7510</v>
-      </c>
-      <c r="G22" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="H22" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="K22" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="L22" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
+        <v>17</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>6795560</v>
-      </c>
-      <c r="D23" s="1" t="n">
-        <v>1098</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1" t="n">
-        <v>147305</v>
-      </c>
-      <c r="G23" s="1" t="n">
-        <v>749</v>
-      </c>
-      <c r="H23" s="1" t="n">
-        <v>953</v>
-      </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1" t="n">
-        <v>2800</v>
-      </c>
-      <c r="K23" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="L23" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
+        <v>18</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B24" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="C24" s="7" t="n">
-        <v>837448468</v>
-      </c>
-      <c r="D24" s="1" t="n">
-        <v>10274</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1" t="n">
-        <v>3523513</v>
-      </c>
-      <c r="G24" s="1" t="n">
-        <v>38845</v>
-      </c>
-      <c r="H24" s="1" t="n">
-        <v>5317</v>
-      </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1" t="n">
-        <v>54436</v>
-      </c>
-      <c r="K24" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="L24" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-    </row>
-    <row r="25" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4213,566 +4138,751 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:P26"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B2:D2 A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E47" activeCellId="0" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="3.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="3.18"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="14.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="3.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="10.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="11.52"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" s="2" customFormat="true" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="L3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="3" t="s">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="M4" s="3"/>
+      <c r="N4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="O4" s="3" t="s">
         <v>44</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1" t="n">
+        <f aca="false">G5+D5</f>
+        <v>7</v>
+      </c>
+      <c r="O5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="F6" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>115</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="M6" s="1"/>
       <c r="N6" s="1" t="n">
-        <f aca="false">G6+D6</f>
-        <v>7</v>
+        <f aca="false">D6+F6+L6</f>
+        <v>91</v>
       </c>
       <c r="O6" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>2030</v>
+      </c>
+      <c r="D7" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="C7" s="3" t="n">
-        <v>115</v>
-      </c>
-      <c r="D7" s="3" t="n">
-        <v>57</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="n">
-        <v>32</v>
-      </c>
-      <c r="G7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
       <c r="J7" s="1" t="n">
-        <v>85</v>
-      </c>
+        <f aca="false">38*60+45</f>
+        <v>2325</v>
+      </c>
+      <c r="K7" s="1"/>
       <c r="L7" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="M7" s="1"/>
       <c r="N7" s="1" t="n">
-        <f aca="false">D7+F7+L7</f>
-        <v>91</v>
+        <f aca="false">D7+G7+L7</f>
+        <v>21</v>
       </c>
       <c r="O7" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>2030</v>
+        <v>90118</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>16</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="1" t="n">
-        <v>448</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="J8" s="1" t="n">
-        <f aca="false">38*60+45</f>
-        <v>2325</v>
+        <v>7510</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1" t="n">
+        <f aca="false">7*3600+7*60-7</f>
+        <v>25613</v>
       </c>
       <c r="L8" s="1" t="n">
-        <v>2</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="M8" s="1"/>
       <c r="N8" s="1" t="n">
-        <f aca="false">D8+G8+L8</f>
-        <v>21</v>
+        <f aca="false">D8+H8+L8</f>
+        <v>134</v>
       </c>
       <c r="O8" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>90118</v>
+        <v>6795560</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>100</v>
-      </c>
+        <v>1098</v>
+      </c>
+      <c r="E9" s="1"/>
       <c r="F9" s="1" t="n">
-        <v>7510</v>
-      </c>
+        <v>147305</v>
+      </c>
+      <c r="G9" s="1"/>
       <c r="H9" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="K9" s="1" t="n">
-        <f aca="false">7*3600+7*60-7</f>
-        <v>25613</v>
-      </c>
+        <v>749</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
       <c r="L9" s="1" t="n">
-        <v>25</v>
-      </c>
+        <v>953</v>
+      </c>
+      <c r="M9" s="1"/>
       <c r="N9" s="1" t="n">
-        <f aca="false">D9+H9+L9</f>
-        <v>134</v>
+        <f aca="false">L9+H9+D9</f>
+        <v>2800</v>
       </c>
       <c r="O9" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>6257274</v>
+        <v>837448468</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>1045</v>
-      </c>
+        <v>10274</v>
+      </c>
+      <c r="E10" s="1"/>
       <c r="F10" s="1" t="n">
-        <v>147305</v>
-      </c>
+        <v>3523513</v>
+      </c>
+      <c r="G10" s="1"/>
       <c r="H10" s="1" t="n">
-        <v>693</v>
-      </c>
+        <v>38845</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
       <c r="L10" s="1" t="n">
-        <v>1556</v>
-      </c>
+        <v>5317</v>
+      </c>
+      <c r="M10" s="1"/>
       <c r="N10" s="1" t="n">
         <f aca="false">L10+H10+D10</f>
-        <v>3294</v>
+        <v>54436</v>
       </c>
       <c r="O10" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="5"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>760773728</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>9302</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>3523513</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <v>53329</v>
-      </c>
-      <c r="L11" s="1" t="n">
-        <v>5317</v>
-      </c>
-      <c r="N11" s="1" t="n">
-        <f aca="false">L11+H11+D11</f>
-        <v>67948</v>
-      </c>
-      <c r="O11" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="P11" s="0" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" s="5" customFormat="true" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+      <c r="D19" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
+      <c r="G19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="D20" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="F20" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>115</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="G20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G20" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" s="1"/>
       <c r="J20" s="1" t="n">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L20" s="1" t="n">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B21" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>2030</v>
+      </c>
+      <c r="D21" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="C21" s="3" t="n">
-        <v>115</v>
-      </c>
-      <c r="D21" s="3" t="n">
-        <v>57</v>
-      </c>
-      <c r="F21" s="3" t="n">
-        <v>32</v>
-      </c>
-      <c r="G21" s="3" t="n">
-        <v>0</v>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="I21" s="1"/>
       <c r="J21" s="1" t="n">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="K21" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L21" s="1" t="n">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>2030</v>
+        <v>90118</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>16</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E22" s="1"/>
       <c r="F22" s="1" t="n">
-        <v>448</v>
+        <v>7510</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>2</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="I22" s="1"/>
       <c r="J22" s="1" t="n">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="K22" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L22" s="1" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>90118</v>
+        <v>6795560</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>100</v>
-      </c>
+        <v>1098</v>
+      </c>
+      <c r="E23" s="1"/>
       <c r="F23" s="1" t="n">
-        <v>7510</v>
+        <v>147305</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>9</v>
+        <v>749</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>25</v>
-      </c>
+        <v>953</v>
+      </c>
+      <c r="I23" s="1"/>
       <c r="J23" s="1" t="n">
-        <v>134</v>
+        <v>2800</v>
       </c>
       <c r="K23" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L23" s="1" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>6257274</v>
+        <v>30</v>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>837448468</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>1045</v>
-      </c>
+        <v>10274</v>
+      </c>
+      <c r="E24" s="1"/>
       <c r="F24" s="1" t="n">
-        <v>147305</v>
+        <v>3523513</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>693</v>
+        <v>38845</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>1556</v>
-      </c>
+        <v>5317</v>
+      </c>
+      <c r="I24" s="1"/>
       <c r="J24" s="1" t="n">
-        <v>3294</v>
+        <v>54436</v>
       </c>
       <c r="K24" s="1" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="L24" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>760773728</v>
-      </c>
-      <c r="D25" s="1" t="n">
-        <v>9302</v>
-      </c>
-      <c r="F25" s="1" t="n">
-        <v>3523513</v>
-      </c>
-      <c r="G25" s="1" t="n">
-        <v>53329</v>
-      </c>
-      <c r="H25" s="1" t="n">
-        <v>5317</v>
-      </c>
-      <c r="J25" s="1" t="n">
-        <v>67948</v>
-      </c>
-      <c r="K25" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="L25" s="1" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" s="5" customFormat="true" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="4"/>
-      <c r="D26" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4790,386 +4900,566 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:H33"/>
+  <dimension ref="A2:P26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B2:D2 A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="3.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="3.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="14.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="3.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="10.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>18</v>
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="F4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="true" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>13</v>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <f aca="false">G6+D6</f>
+        <v>7</v>
+      </c>
+      <c r="O6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>115</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="L7" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B7" s="1" t="n">
-        <v>4916789</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>707</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="N7" s="1" t="n">
+        <f aca="false">D7+F7+L7</f>
+        <v>91</v>
+      </c>
+      <c r="O7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>2030</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="G8" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B8" s="1" t="n">
-        <v>67059</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="J8" s="1" t="n">
+        <f aca="false">38*60+45</f>
+        <v>2325</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <f aca="false">D8+G8+L8</f>
+        <v>21</v>
+      </c>
+      <c r="O8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>67324</v>
+        <v>9</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>363</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+        <v>90118</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>7510</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <f aca="false">7*3600+7*60-7</f>
+        <v>25613</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <f aca="false">D9+H9+L9</f>
+        <v>134</v>
+      </c>
+      <c r="O9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>62916</v>
+        <v>10</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>423</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+        <v>6257274</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>1045</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>147305</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>693</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>1556</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <f aca="false">L10+H10+D10</f>
+        <v>3294</v>
+      </c>
+      <c r="O10" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>760773728</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>9302</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>3523513</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>53329</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <v>5317</v>
+      </c>
+      <c r="N11" s="1" t="n">
+        <f aca="false">L11+H11+D11</f>
+        <v>67948</v>
+      </c>
+      <c r="O11" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" s="5" customFormat="true" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="1" t="n">
-        <v>73154</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>590</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>62904</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>448</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>67397</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>575</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>68448</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>521</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>67130</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>604</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>62904</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>513</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>73433</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>728</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>62904</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>544</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>67118</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>703</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="G19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>68460</v>
+        <v>6</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>14</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>668</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L20" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B21" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B21" s="1" t="n">
-        <v>67397</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>789</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="C21" s="3" t="n">
+        <v>115</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L21" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>62904</v>
+        <v>8</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>18</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>665</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+        <v>2030</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L22" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>73154</v>
+        <v>9</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>20</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>917</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+        <v>90118</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>7510</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="J23" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="L23" s="1" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>62904</v>
+        <v>10</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>22</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>728</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+        <v>6257274</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>1045</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>147305</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>693</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>1556</v>
+      </c>
+      <c r="J24" s="1" t="n">
+        <v>3294</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L24" s="1" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="B25" s="1" t="n">
-        <v>67409</v>
+        <v>11</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>24</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>947</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>68448</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>878</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="B27" s="1" t="n">
-        <v>67118</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>1023</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+        <v>760773728</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>9302</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>3523513</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>53329</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>5317</v>
+      </c>
+      <c r="J25" s="1" t="n">
+        <v>67948</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="L25" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B29" s="1" t="n">
-        <f aca="false">SUM(B6:B27)</f>
-        <v>6257274</v>
-      </c>
-      <c r="C29" s="1" t="n">
-        <f aca="false">MAX(C6:C27)+22</f>
-        <v>1045</v>
-      </c>
-      <c r="E29" s="1" t="n">
-        <v>147305</v>
-      </c>
-      <c r="F29" s="1" t="n">
-        <f aca="false">583+87+23</f>
-        <v>693</v>
-      </c>
-      <c r="H29" s="0" t="n">
-        <f aca="false">26*60-4</f>
-        <v>1556</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>73166</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>69</v>
-      </c>
-      <c r="F33" s="0" t="n">
-        <v>156</v>
-      </c>
+    </row>
+    <row r="26" s="5" customFormat="true" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
